--- a/medicine/Psychotrope/Alexandre_Lazareff/Alexandre_Lazareff.xlsx
+++ b/medicine/Psychotrope/Alexandre_Lazareff/Alexandre_Lazareff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Lazareff, né le 15 janvier 1957 à Fontainebleau, est un entrepreneur et écrivain français.
 </t>
@@ -511,7 +523,9 @@
           <t>Diplômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Diplômé de l'Institut d'études politiques de Paris (1977)
 Ancien élève de l'ENA (1980-1983)
@@ -543,7 +557,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après quatre années de négociations commerciales internationales au ministère de l’Économie et des Finances, il prend, de 1987 à 1989 la direction de Radio Tour Eiffel, radio de la Ville de Paris.
 En 1986, Jack Lang lui propose de créer le Conseil national des arts culinaires (CNAC) dont il assurera la direction pendant dix ans. 
@@ -577,7 +593,9 @@
           <t>Activités journalistiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chroniqueur gastronomique de 1987 à 2002 sur les vins, les restaurants et les produits : France Soir, Le Nouvel Économiste, Le Figaro, le Financial Times et la revue France Magazine, publiée par l'ambassade des États-Unis.
 </t>
@@ -608,7 +626,9 @@
           <t>Activité publiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Secrétaire général du Conseil supérieur de l’Œnotourisme
 Intervenant à Sciences Po Paris depuis 2005 sur les stratégies du luxe alimentaire
@@ -640,7 +660,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1983 : Le Droit des sondages politiques, Librairie générale de droit et de jurisprudence.
 1984 : Paris sucré, guide des salons de thé parisiens, en collaboration avec Renaud Girard, Hachette.
@@ -678,9 +700,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de l'ordre national du Mérite Il est promu officier par décret du 14 novembre 2016[1]. Il était chevalier du 16 février 1995.</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de l'ordre national du Mérite Il est promu officier par décret du 14 novembre 2016. Il était chevalier du 16 février 1995.</t>
         </is>
       </c>
     </row>
